--- a/Daily record/timeMarking.xlsx
+++ b/Daily record/timeMarking.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>第n天\</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,31 +42,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2周时间记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4周时间记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到家时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1周时间记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3周时间记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间都去哪儿了？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2周时间记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1周时间记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,17 +136,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -167,32 +196,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,400 +525,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="50.1" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A2" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C13" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D13" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E13" s="8">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F13" s="8">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G13" s="8">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H13" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="14" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>6</v>
-      </c>
-      <c r="H29" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="18">
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="B9:H9"/>
@@ -893,33 +801,6 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,7 +812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
